--- a/vlf_final_all.xlsx
+++ b/vlf_final_all.xlsx
@@ -526,7 +526,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -550,6 +550,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -568,17 +575,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -910,8 +926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FK84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BN1" workbookViewId="0">
-      <selection activeCell="CB1" sqref="CB1:FK84"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="FN84" sqref="FN84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -32829,7 +32845,7 @@
         <v>46</v>
       </c>
       <c r="BW64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX64">
         <v>119</v>
@@ -33332,7 +33348,7 @@
         <v>77</v>
       </c>
       <c r="BW65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX65">
         <v>123</v>
@@ -33835,7 +33851,7 @@
         <v>55</v>
       </c>
       <c r="BW66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX66">
         <v>77</v>
@@ -34338,7 +34354,7 @@
         <v>29</v>
       </c>
       <c r="BW67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX67">
         <v>56</v>
@@ -34841,7 +34857,7 @@
         <v>50</v>
       </c>
       <c r="BW68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX68">
         <v>106</v>
@@ -35344,7 +35360,7 @@
         <v>25</v>
       </c>
       <c r="BW69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX69">
         <v>73</v>
@@ -35847,7 +35863,7 @@
         <v>32</v>
       </c>
       <c r="BW70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX70">
         <v>113</v>
@@ -36024,7 +36040,7 @@
         <v>86</v>
       </c>
       <c r="ED70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EE70">
         <v>16</v>
@@ -36350,7 +36366,7 @@
         <v>48</v>
       </c>
       <c r="BW71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX71">
         <v>84</v>
@@ -36443,7 +36459,7 @@
         <v>52</v>
       </c>
       <c r="DB71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DC71">
         <v>66</v>
@@ -36527,7 +36543,7 @@
         <v>42</v>
       </c>
       <c r="ED71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EE71">
         <v>28</v>
@@ -36853,7 +36869,7 @@
         <v>34</v>
       </c>
       <c r="BW72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX72">
         <v>128</v>
@@ -36946,7 +36962,7 @@
         <v>68</v>
       </c>
       <c r="DB72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DC72">
         <v>111</v>
@@ -37030,7 +37046,7 @@
         <v>68</v>
       </c>
       <c r="ED72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EE72">
         <v>12</v>
@@ -37356,7 +37372,7 @@
         <v>16</v>
       </c>
       <c r="BW73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX73">
         <v>30</v>
@@ -37449,7 +37465,7 @@
         <v>17</v>
       </c>
       <c r="DB73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DC73">
         <v>37</v>
@@ -37533,7 +37549,7 @@
         <v>20</v>
       </c>
       <c r="ED73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EE73">
         <v>23</v>
@@ -37765,8 +37781,8 @@
       <c r="AQ74">
         <v>29</v>
       </c>
-      <c r="AR74">
-        <v>0</v>
+      <c r="AR74" s="1">
+        <v>1</v>
       </c>
       <c r="AS74">
         <v>6</v>
@@ -37835,7 +37851,7 @@
         <v>74</v>
       </c>
       <c r="BO74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP74">
         <v>3</v>
@@ -37859,7 +37875,7 @@
         <v>6</v>
       </c>
       <c r="BW74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX74">
         <v>44</v>
@@ -37952,7 +37968,7 @@
         <v>13</v>
       </c>
       <c r="DB74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DC74">
         <v>31</v>
@@ -37997,7 +38013,7 @@
         <v>1</v>
       </c>
       <c r="DQ74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DR74">
         <v>87</v>
@@ -38036,7 +38052,7 @@
         <v>35</v>
       </c>
       <c r="ED74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EE74">
         <v>19</v>
@@ -38233,7 +38249,7 @@
         <v>1</v>
       </c>
       <c r="AF75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG75">
         <v>5</v>
@@ -38268,8 +38284,8 @@
       <c r="AQ75">
         <v>1</v>
       </c>
-      <c r="AR75">
-        <v>0</v>
+      <c r="AR75" s="1">
+        <v>1</v>
       </c>
       <c r="AS75">
         <v>1</v>
@@ -38338,10 +38354,10 @@
         <v>1</v>
       </c>
       <c r="BO75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ75">
         <v>1</v>
@@ -38362,7 +38378,7 @@
         <v>10</v>
       </c>
       <c r="BW75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX75">
         <v>1</v>
@@ -38455,7 +38471,7 @@
         <v>1</v>
       </c>
       <c r="DB75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DC75">
         <v>1</v>
@@ -38500,7 +38516,7 @@
         <v>9</v>
       </c>
       <c r="DQ75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DR75">
         <v>1</v>
@@ -38539,7 +38555,7 @@
         <v>1</v>
       </c>
       <c r="ED75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EE75">
         <v>1</v>
@@ -38736,7 +38752,7 @@
         <v>10</v>
       </c>
       <c r="AF76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG76">
         <v>27</v>
@@ -38771,8 +38787,8 @@
       <c r="AQ76">
         <v>41</v>
       </c>
-      <c r="AR76">
-        <v>0</v>
+      <c r="AR76" s="1">
+        <v>1</v>
       </c>
       <c r="AS76">
         <v>6</v>
@@ -38841,10 +38857,10 @@
         <v>43</v>
       </c>
       <c r="BO76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ76">
         <v>22</v>
@@ -38865,7 +38881,7 @@
         <v>17</v>
       </c>
       <c r="BW76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX76">
         <v>17</v>
@@ -38958,7 +38974,7 @@
         <v>42</v>
       </c>
       <c r="DB76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DC76">
         <v>32</v>
@@ -39003,7 +39019,7 @@
         <v>20</v>
       </c>
       <c r="DQ76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DR76">
         <v>50</v>
@@ -39042,7 +39058,7 @@
         <v>20</v>
       </c>
       <c r="ED76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EE76">
         <v>27</v>
@@ -39239,7 +39255,7 @@
         <v>6</v>
       </c>
       <c r="AF77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG77">
         <v>60</v>
@@ -39274,8 +39290,8 @@
       <c r="AQ77">
         <v>65</v>
       </c>
-      <c r="AR77">
-        <v>0</v>
+      <c r="AR77" s="1">
+        <v>1</v>
       </c>
       <c r="AS77">
         <v>28</v>
@@ -39344,10 +39360,10 @@
         <v>77</v>
       </c>
       <c r="BO77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ77">
         <v>30</v>
@@ -39368,7 +39384,7 @@
         <v>16</v>
       </c>
       <c r="BW77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX77">
         <v>62</v>
@@ -39461,7 +39477,7 @@
         <v>1</v>
       </c>
       <c r="DB77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DC77">
         <v>80</v>
@@ -39506,7 +39522,7 @@
         <v>1</v>
       </c>
       <c r="DQ77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DR77">
         <v>120</v>
@@ -39545,7 +39561,7 @@
         <v>57</v>
       </c>
       <c r="ED77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EE77">
         <v>1</v>
@@ -39742,7 +39758,7 @@
         <v>10</v>
       </c>
       <c r="AF78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG78">
         <v>111</v>
@@ -39777,8 +39793,8 @@
       <c r="AQ78">
         <v>56</v>
       </c>
-      <c r="AR78">
-        <v>0</v>
+      <c r="AR78" s="1">
+        <v>1</v>
       </c>
       <c r="AS78">
         <v>46</v>
@@ -39847,10 +39863,10 @@
         <v>96</v>
       </c>
       <c r="BO78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ78">
         <v>25</v>
@@ -39871,7 +39887,7 @@
         <v>24</v>
       </c>
       <c r="BW78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX78">
         <v>93</v>
@@ -39964,7 +39980,7 @@
         <v>68</v>
       </c>
       <c r="DB78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DC78">
         <v>80</v>
@@ -40009,7 +40025,7 @@
         <v>26</v>
       </c>
       <c r="DQ78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DR78">
         <v>119</v>
@@ -40048,7 +40064,7 @@
         <v>72</v>
       </c>
       <c r="ED78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EE78">
         <v>31</v>
@@ -40242,10 +40258,10 @@
         <v>17</v>
       </c>
       <c r="AE79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG79">
         <v>61</v>
@@ -40280,8 +40296,8 @@
       <c r="AQ79">
         <v>2</v>
       </c>
-      <c r="AR79">
-        <v>0</v>
+      <c r="AR79" s="1">
+        <v>1</v>
       </c>
       <c r="AS79">
         <v>1</v>
@@ -40350,16 +40366,16 @@
         <v>23</v>
       </c>
       <c r="BO79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS79">
         <v>21</v>
@@ -40374,7 +40390,7 @@
         <v>3</v>
       </c>
       <c r="BW79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX79">
         <v>49</v>
@@ -40467,7 +40483,7 @@
         <v>44</v>
       </c>
       <c r="DB79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DC79">
         <v>43</v>
@@ -40512,7 +40528,7 @@
         <v>1</v>
       </c>
       <c r="DQ79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DR79">
         <v>42</v>
@@ -40551,7 +40567,7 @@
         <v>16</v>
       </c>
       <c r="ED79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EE79">
         <v>18</v>
@@ -40745,10 +40761,10 @@
         <v>20</v>
       </c>
       <c r="AE80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG80">
         <v>112</v>
@@ -40783,8 +40799,8 @@
       <c r="AQ80">
         <v>59</v>
       </c>
-      <c r="AR80">
-        <v>0</v>
+      <c r="AR80" s="1">
+        <v>1</v>
       </c>
       <c r="AS80">
         <v>54</v>
@@ -40853,16 +40869,16 @@
         <v>106</v>
       </c>
       <c r="BO80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS80">
         <v>36</v>
@@ -40877,7 +40893,7 @@
         <v>14</v>
       </c>
       <c r="BW80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX80">
         <v>130</v>
@@ -40943,13 +40959,13 @@
         <v>52</v>
       </c>
       <c r="CS80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CT80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV80">
         <v>152</v>
@@ -40970,7 +40986,7 @@
         <v>87</v>
       </c>
       <c r="DB80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DC80">
         <v>116</v>
@@ -41015,7 +41031,7 @@
         <v>42</v>
       </c>
       <c r="DQ80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DR80">
         <v>176</v>
@@ -41054,7 +41070,7 @@
         <v>88</v>
       </c>
       <c r="ED80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EE80">
         <v>18</v>
@@ -41063,7 +41079,7 @@
         <v>92</v>
       </c>
       <c r="EG80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH80">
         <v>10</v>
@@ -41117,7 +41133,7 @@
         <v>234</v>
       </c>
       <c r="EY80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ80">
         <v>178</v>
@@ -41245,13 +41261,13 @@
         <v>59</v>
       </c>
       <c r="AD81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG81">
         <v>114</v>
@@ -41286,8 +41302,8 @@
       <c r="AQ81">
         <v>71</v>
       </c>
-      <c r="AR81">
-        <v>0</v>
+      <c r="AR81" s="1">
+        <v>1</v>
       </c>
       <c r="AS81">
         <v>53</v>
@@ -41356,19 +41372,19 @@
         <v>136</v>
       </c>
       <c r="BO81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT81">
         <v>168</v>
@@ -41380,7 +41396,7 @@
         <v>11</v>
       </c>
       <c r="BW81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX81">
         <v>103</v>
@@ -41443,16 +41459,16 @@
         <v>85</v>
       </c>
       <c r="CR81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CT81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV81">
         <v>101</v>
@@ -41473,7 +41489,7 @@
         <v>58</v>
       </c>
       <c r="DB81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DC81">
         <v>116</v>
@@ -41518,7 +41534,7 @@
         <v>33</v>
       </c>
       <c r="DQ81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DR81">
         <v>158</v>
@@ -41557,7 +41573,7 @@
         <v>104</v>
       </c>
       <c r="ED81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EE81">
         <v>0</v>
@@ -41566,10 +41582,10 @@
         <v>111</v>
       </c>
       <c r="EG81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EI81">
         <v>61</v>
@@ -41590,10 +41606,10 @@
         <v>40</v>
       </c>
       <c r="EO81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EP81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ81">
         <v>33</v>
@@ -41620,7 +41636,7 @@
         <v>262</v>
       </c>
       <c r="EY81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ81">
         <v>181</v>
@@ -41748,13 +41764,13 @@
         <v>34</v>
       </c>
       <c r="AD82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG82">
         <v>88</v>
@@ -41789,8 +41805,8 @@
       <c r="AQ82">
         <v>0</v>
       </c>
-      <c r="AR82">
-        <v>0</v>
+      <c r="AR82" s="1">
+        <v>1</v>
       </c>
       <c r="AS82">
         <v>37</v>
@@ -41832,7 +41848,7 @@
         <v>47</v>
       </c>
       <c r="BF82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG82">
         <v>11</v>
@@ -41859,19 +41875,19 @@
         <v>96</v>
       </c>
       <c r="BO82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT82">
         <v>155</v>
@@ -41883,7 +41899,7 @@
         <v>21</v>
       </c>
       <c r="BW82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX82">
         <v>90</v>
@@ -41904,7 +41920,7 @@
         <v>66</v>
       </c>
       <c r="CD82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE82">
         <v>154</v>
@@ -41946,16 +41962,16 @@
         <v>78</v>
       </c>
       <c r="CR82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CT82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV82">
         <v>103</v>
@@ -41976,7 +41992,7 @@
         <v>63</v>
       </c>
       <c r="DB82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DC82">
         <v>79</v>
@@ -42021,7 +42037,7 @@
         <v>26</v>
       </c>
       <c r="DQ82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DR82">
         <v>125</v>
@@ -42060,7 +42076,7 @@
         <v>88</v>
       </c>
       <c r="ED82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EE82">
         <v>0</v>
@@ -42069,10 +42085,10 @@
         <v>95</v>
       </c>
       <c r="EG82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EI82">
         <v>72</v>
@@ -42093,10 +42109,10 @@
         <v>31</v>
       </c>
       <c r="EO82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EP82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ82">
         <v>32</v>
@@ -42114,7 +42130,7 @@
         <v>40</v>
       </c>
       <c r="EV82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EW82">
         <v>184</v>
@@ -42123,7 +42139,7 @@
         <v>195</v>
       </c>
       <c r="EY82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ82">
         <v>158</v>
@@ -42251,13 +42267,13 @@
         <v>22</v>
       </c>
       <c r="AD83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG83">
         <v>110</v>
@@ -42292,8 +42308,8 @@
       <c r="AQ83">
         <v>0</v>
       </c>
-      <c r="AR83">
-        <v>0</v>
+      <c r="AR83" s="1">
+        <v>1</v>
       </c>
       <c r="AS83">
         <v>16</v>
@@ -42335,7 +42351,7 @@
         <v>46</v>
       </c>
       <c r="BF83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG83">
         <v>8</v>
@@ -42362,19 +42378,19 @@
         <v>81</v>
       </c>
       <c r="BO83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT83">
         <v>143</v>
@@ -42386,7 +42402,7 @@
         <v>12</v>
       </c>
       <c r="BW83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX83">
         <v>102</v>
@@ -42407,7 +42423,7 @@
         <v>54</v>
       </c>
       <c r="CD83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE83">
         <v>190</v>
@@ -42449,16 +42465,16 @@
         <v>77</v>
       </c>
       <c r="CR83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CT83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV83">
         <v>125</v>
@@ -42479,7 +42495,7 @@
         <v>42</v>
       </c>
       <c r="DB83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DC83">
         <v>99</v>
@@ -42524,7 +42540,7 @@
         <v>13</v>
       </c>
       <c r="DQ83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DR83">
         <v>137</v>
@@ -42563,7 +42579,7 @@
         <v>108</v>
       </c>
       <c r="ED83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EE83">
         <v>0</v>
@@ -42572,10 +42588,10 @@
         <v>109</v>
       </c>
       <c r="EG83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EI83">
         <v>63</v>
@@ -42596,10 +42612,10 @@
         <v>32</v>
       </c>
       <c r="EO83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EP83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ83">
         <v>33</v>
@@ -42617,7 +42633,7 @@
         <v>61</v>
       </c>
       <c r="EV83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EW83">
         <v>122</v>
@@ -42626,7 +42642,7 @@
         <v>202</v>
       </c>
       <c r="EY83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ83">
         <v>144</v>
@@ -42754,13 +42770,13 @@
         <v>1</v>
       </c>
       <c r="AD84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG84">
         <v>58</v>
@@ -42795,8 +42811,8 @@
       <c r="AQ84">
         <v>0</v>
       </c>
-      <c r="AR84">
-        <v>0</v>
+      <c r="AR84" s="1">
+        <v>1</v>
       </c>
       <c r="AS84">
         <v>3</v>
@@ -42838,7 +42854,7 @@
         <v>7</v>
       </c>
       <c r="BF84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG84">
         <v>7</v>
@@ -42865,19 +42881,19 @@
         <v>15</v>
       </c>
       <c r="BO84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT84">
         <v>55</v>
@@ -42889,7 +42905,7 @@
         <v>4</v>
       </c>
       <c r="BW84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX84">
         <v>39</v>
@@ -42910,7 +42926,7 @@
         <v>23</v>
       </c>
       <c r="CD84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE84">
         <v>108</v>
@@ -42952,16 +42968,16 @@
         <v>55</v>
       </c>
       <c r="CR84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CT84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV84">
         <v>50</v>
@@ -42982,7 +42998,7 @@
         <v>0</v>
       </c>
       <c r="DB84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DC84">
         <v>108</v>
@@ -43027,7 +43043,7 @@
         <v>17</v>
       </c>
       <c r="DQ84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DR84">
         <v>73</v>
@@ -43066,7 +43082,7 @@
         <v>46</v>
       </c>
       <c r="ED84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EE84">
         <v>0</v>
@@ -43075,10 +43091,10 @@
         <v>47</v>
       </c>
       <c r="EG84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EI84">
         <v>17</v>
@@ -43099,10 +43115,10 @@
         <v>19</v>
       </c>
       <c r="EO84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EP84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ84">
         <v>13</v>
@@ -43120,7 +43136,7 @@
         <v>7</v>
       </c>
       <c r="EV84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EW84">
         <v>66</v>
@@ -43129,7 +43145,7 @@
         <v>81</v>
       </c>
       <c r="EY84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ84">
         <v>48</v>
